--- a/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
+++ b/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -405,6 +405,58 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>議事録の格納メールの送信について教えてください。</t>
+    <rPh sb="0" eb="3">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鹿島さん</t>
+    <rPh sb="0" eb="2">
+      <t>カシマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鹿島さんから丁寧に教えていただきました。</t>
+    <rPh sb="0" eb="2">
+      <t>カシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UDPのサンプルコードを実行しても特定の人に送信できません</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -483,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1082,19 +1137,37 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42912</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42912</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>42912</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>

--- a/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
+++ b/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="QA表" sheetId="6" r:id="rId1"/>
+    <sheet name="13" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -457,6 +458,48 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シグナルの番号が調べていたのと違います</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kill -lで確かめた結果、対応する番号が違っていました</t>
+    <rPh sb="8" eb="9">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境によって異なるみたいです</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -590,6 +633,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="6534150" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,7 +977,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1167,23 +1259,39 @@
       <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>42915</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42915</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1271,4 +1379,20 @@
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
+++ b/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QA表" sheetId="6" r:id="rId1"/>
     <sheet name="13" sheetId="9" r:id="rId2"/>
+    <sheet name="16" sheetId="10" r:id="rId3"/>
+    <sheet name="17" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -500,6 +502,288 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JavaGCのオプションの設定方法が分かりません</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行時のVM引数の欄とエクリプス起動前にeclipse.iniに記入する方法が見つかりました。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FullGCが起動するプログラムのサンプルが見つかりません</t>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動作が重くなるような処理を入れました。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シリアル方式とパラレル方式の処理時間が予想と違います</t>
+    <rPh sb="4" eb="6">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鹿島さん</t>
+    <rPh sb="0" eb="2">
+      <t>カシマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラム実行時の環境が悪かったようです。</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TCPを用いたプログラムが想定と異なる動作をします。</t>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理時間（秒）</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シリアル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラレル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CMS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1GC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Full GCを使うプログラムのソースコード</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Full GCを使うプログラムの実行結果の時間</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受信するとき１０ぐらいのところでエラーが出てしまった。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンソール上には１００まで送信できたと表示された。</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SocketExceptionが反応し、socket closedというエラーメッセージが出ました。</t>
+    <rPh sb="16" eb="18">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラムの構成が悪いようです。</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>考え直します。</t>
+    <rPh sb="0" eb="1">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラムのソースコード（送信側）</t>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラムのソースコード（受信側）</t>
+    <rPh sb="13" eb="15">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果（キャプチャをしていないので概要のみです。受信側ではエラーメッセージは出ていませんでした。）</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -508,7 +792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +811,13 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -551,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -574,11 +865,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,8 +1021,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,6 +1114,148 @@
         <a:xfrm>
           <a:off x="0" y="171450"/>
           <a:ext cx="6534150" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1219200"/>
+          <a:ext cx="7772400" cy="8019870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="4705350" cy="6372225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="7029450"/>
+          <a:ext cx="5362575" cy="4772025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,8 +1559,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1287,43 +1870,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42920</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>42921</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42921</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>42923</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42926</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>42926</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42926</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
@@ -1395,4 +2026,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15">
+        <v>32</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="15">
+        <v>50</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
+++ b/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="QA表" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -785,6 +785,40 @@
     <rPh sb="37" eb="38">
       <t>デ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ActiveMQの管理用ツールがうまく動きません</t>
+    <rPh sb="9" eb="12">
+      <t>カンリヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鹿島さん</t>
+    <rPh sb="0" eb="2">
+      <t>カシマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うまく動く方法を教えてもらいました。</t>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ActiveMQBrowserです</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -989,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1024,14 +1058,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,20 +1082,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,8 +1596,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1957,17 +1994,33 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42927</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42928</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2047,51 +2100,51 @@
       <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="18">
         <v>32</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="18">
         <v>50</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="18">
         <v>35</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>47</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2116,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>

--- a/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
+++ b/personal/hatsugai/2017_新人研修QA表_初谷.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -805,7 +805,41 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>うまく動く方法を教えてもらいました。</t>
+    <t>ActiveMQBrowserです</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクセルでJunitと打つとuが小文字になります</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オートコレクトオプションを変更しました。</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デスクトップ上の削除したはずのエクセルファイルが復活します</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うまく動く方法を教えてもらいました。\\DORAMI\public\新人研修\2017\03.社内プロジェクト\06.その他\02.ActiveMQ管理ツールについて\ActiveMQ管理ツール導入手順書.xlsxに方法が記載されています。</t>
     <rPh sb="3" eb="4">
       <t>ウゴ</t>
     </rPh>
@@ -815,10 +849,12 @@
     <rPh sb="8" eb="9">
       <t>オシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ActiveMQBrowserです</t>
+    <rPh sb="108" eb="110">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1023,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,9 +1123,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1993,7 +2026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2010,27 +2043,43 @@
         <v>68</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="4">
+        <v>42934</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42941</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>42943</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="9"/>
